--- a/Results/Calculation/plsa-partial-ner-fasttext-money.xlsx
+++ b/Results/Calculation/plsa-partial-ner-fasttext-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.51</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="G2">
-        <v>0.77</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="H2">
-        <v>0.61</v>
+        <v>0.6226912928759895</v>
       </c>
       <c r="I2">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>188</v>
@@ -470,19 +470,19 @@
         <v>57</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>0.75</v>
+        <v>0.7543103448275862</v>
       </c>
       <c r="G3">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="H3">
+        <v>0.779510022271715</v>
+      </c>
+      <c r="I3">
         <v>0.79</v>
-      </c>
-      <c r="H3">
-        <v>0.77</v>
-      </c>
-      <c r="I3">
-        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>0.71</v>
+        <v>0.711340206185567</v>
       </c>
       <c r="G4">
-        <v>0.89</v>
+        <v>0.8961038961038961</v>
       </c>
       <c r="H4">
-        <v>0.79</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I4">
         <v>0.84</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>311</v>
@@ -528,19 +528,19 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>0.82</v>
+        <v>0.8189655172413793</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="H5">
-        <v>0.78</v>
+        <v>0.7723577235772358</v>
       </c>
       <c r="I5">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
